--- a/biology/Médecine/Ellen_Boakye/Ellen_Boakye.xlsx
+++ b/biology/Médecine/Ellen_Boakye/Ellen_Boakye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ellen Boakye est une cardiologue ghanéenne pour les enfants. Elle est connue pour s'être distinguée dans son programme d'études et avoir remporté 18 prix[1],[2],[3],[4],[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ellen Boakye est une cardiologue ghanéenne pour les enfants. Elle est connue pour s'être distinguée dans son programme d'études et avoir remporté 18 prix.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boakye est née à Kokofu dans la région Ashanti du Ghana. Elle a fait ses études primaires et secondaires à l'école internationale Petra de Breman Read et à l'école secondaire Yaa Asantewaa de Kumasi respectivement. Elle a ensuite poursuivi ses études à la faculté de médecine de l'université du Ghana. En 2017, elle a remporte dix récompenses sur les 156 prix décernés[7],[1],[8],[9].
-Elle exerce actuellement comme cardiologue pour enfants au Ghana[3],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boakye est née à Kokofu dans la région Ashanti du Ghana. Elle a fait ses études primaires et secondaires à l'école internationale Petra de Breman Read et à l'école secondaire Yaa Asantewaa de Kumasi respectivement. Elle a ensuite poursuivi ses études à la faculté de médecine de l'université du Ghana. En 2017, elle a remporte dix récompenses sur les 156 prix décernés.
+Elle exerce actuellement comme cardiologue pour enfants au Ghana,.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2017 :
-Notable awardee[10]
-People's Choice Practitioners Awards[11],[12]</t>
+Notable awardee
+People's Choice Practitioners Awards,</t>
         </is>
       </c>
     </row>
